--- a/gd/MT/2015.08.07_MonsterBatch1Breakdown(GabeVer3).xlsx
+++ b/gd/MT/2015.08.07_MonsterBatch1Breakdown(GabeVer3).xlsx
@@ -1249,19 +1249,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1277,31 +1302,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1638,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1655,16 +1655,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -1830,7 +1830,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>185</v>
@@ -2629,34 +2629,34 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="84"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="77"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="71" t="s">
+      <c r="B41" s="83"/>
+      <c r="C41" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="71" t="s">
+      <c r="D41" s="83"/>
+      <c r="E41" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="72"/>
-      <c r="G41" s="73" t="s">
+      <c r="F41" s="83"/>
+      <c r="G41" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="72"/>
+      <c r="H41" s="83"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D44" s="4">
         <f>COUNTIF(C3:C38,"Human")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>26</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D45" s="1">
         <f>COUNTIF(C3:C38,"Peculiar")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>25</v>
@@ -2830,14 +2830,14 @@
         <v>182</v>
       </c>
       <c r="B51" s="13"/>
-      <c r="C51" s="79" t="s">
+      <c r="C51" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="D51" s="80"/>
-      <c r="E51" s="81" t="s">
+      <c r="D51" s="72"/>
+      <c r="E51" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="F51" s="82"/>
+      <c r="F51" s="74"/>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -2943,17 +2943,17 @@
       <c r="H56" s="5"/>
     </row>
     <row r="58" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="66" t="s">
+      <c r="A58" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="67"/>
-      <c r="D58" s="68" t="s">
+      <c r="B58" s="70"/>
+      <c r="D58" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="70"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="81"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="59" t="s">
@@ -3237,13 +3237,13 @@
         <f>DataSheet!AC11</f>
         <v>Chang'e</v>
       </c>
-      <c r="D69" s="66" t="s">
+      <c r="D69" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="78"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="67"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="70"/>
     </row>
     <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="61" t="str">
@@ -3315,11 +3315,11 @@
       </c>
       <c r="E72" s="26" t="str">
         <f>DataSheet!H3</f>
-        <v>Wendigo</v>
+        <v>Kappa</v>
       </c>
       <c r="F72" s="26" t="str">
         <f>DataSheet!I3</f>
-        <v>Kappa</v>
+        <v>Shadow Puppet</v>
       </c>
       <c r="G72" s="26" t="str">
         <f>DataSheet!J3</f>
@@ -3345,11 +3345,11 @@
       </c>
       <c r="E73" s="26" t="str">
         <f>DataSheet!H4</f>
-        <v>Werewolf</v>
+        <v>Wendigo</v>
       </c>
       <c r="F73" s="26" t="str">
         <f>DataSheet!I4</f>
-        <v>Shadow Puppet</v>
+        <v>Davy Jones</v>
       </c>
       <c r="G73" s="26" t="str">
         <f>DataSheet!J4</f>
@@ -3375,11 +3375,11 @@
       </c>
       <c r="E74" s="26" t="str">
         <f>DataSheet!H5</f>
-        <v>Banshee</v>
+        <v>Werewolf</v>
       </c>
       <c r="F74" s="26" t="str">
         <f>DataSheet!I5</f>
-        <v>Davy Jones</v>
+        <v>Maiden Dojoji</v>
       </c>
       <c r="G74" s="26" t="str">
         <f>DataSheet!J5</f>
@@ -3405,11 +3405,11 @@
       </c>
       <c r="E75" s="26" t="str">
         <f>DataSheet!H6</f>
-        <v>Longgongtongzi</v>
+        <v>Banshee</v>
       </c>
       <c r="F75" s="26" t="str">
         <f>DataSheet!I6</f>
-        <v>Maiden Dojoji</v>
+        <v>Nephila</v>
       </c>
       <c r="G75" s="26" t="str">
         <f>DataSheet!J6</f>
@@ -3435,11 +3435,11 @@
       </c>
       <c r="E76" s="26" t="str">
         <f>DataSheet!H7</f>
-        <v>Harpy</v>
+        <v>Longgongtongzi</v>
       </c>
       <c r="F76" s="26" t="str">
         <f>DataSheet!I7</f>
-        <v>Nephila</v>
+        <v/>
       </c>
       <c r="G76" s="26" t="str">
         <f>DataSheet!J7</f>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="E77" s="26" t="str">
         <f>DataSheet!H8</f>
-        <v>Keres</v>
+        <v>Harpy</v>
       </c>
       <c r="F77" s="26" t="str">
         <f>DataSheet!I8</f>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="E78" s="26" t="str">
         <f>DataSheet!H9</f>
-        <v>King Elve</v>
+        <v>Keres</v>
       </c>
       <c r="F78" s="26" t="str">
         <f>DataSheet!I9</f>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="E79" s="21" t="str">
         <f>DataSheet!H10</f>
-        <v>Ifrit</v>
+        <v>King Elve</v>
       </c>
       <c r="F79" s="21" t="str">
         <f>DataSheet!I10</f>
@@ -3580,15 +3580,15 @@
       <c r="H82" s="55"/>
     </row>
     <row r="83" spans="1:15" ht="23" x14ac:dyDescent="0.15">
-      <c r="A83" s="74" t="s">
+      <c r="A83" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="75"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="77"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="67"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="51" t="s">
@@ -4654,11 +4654,6 @@
   </sheetData>
   <autoFilter ref="A2:H2"/>
   <mergeCells count="12">
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="A40:H40"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="D58:H58"/>
@@ -4666,6 +4661,11 @@
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="A40:H40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5119,11 +5119,11 @@
       </c>
       <c r="H3" t="str">
         <f t="array" ref="H3">INDEX(B:B,SMALL(IF($B$1:$B$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(B3)))&amp;""</f>
-        <v>Wendigo</v>
+        <v>Kappa</v>
       </c>
       <c r="I3" t="str">
         <f t="array" ref="I3">INDEX(C:C,SMALL(IF($C$1:$C$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(C3)))&amp;""</f>
-        <v>Kappa</v>
+        <v>Shadow Puppet</v>
       </c>
       <c r="J3" t="str">
         <f t="array" ref="J3">INDEX(D:D,SMALL(IF($D$1:$D$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(D3)))&amp;""</f>
@@ -5334,11 +5334,11 @@
       </c>
       <c r="H4" t="str">
         <f t="array" ref="H4">INDEX(B:B,SMALL(IF($B$1:$B$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(B4)))&amp;""</f>
-        <v>Werewolf</v>
+        <v>Wendigo</v>
       </c>
       <c r="I4" t="str">
         <f t="array" ref="I4">INDEX(C:C,SMALL(IF($C$1:$C$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(C4)))&amp;""</f>
-        <v>Shadow Puppet</v>
+        <v>Davy Jones</v>
       </c>
       <c r="J4" t="str">
         <f t="array" ref="J4">INDEX(D:D,SMALL(IF($D$1:$D$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(D4)))&amp;""</f>
@@ -5549,11 +5549,11 @@
       </c>
       <c r="H5" t="str">
         <f t="array" ref="H5">INDEX(B:B,SMALL(IF($B$1:$B$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(B5)))&amp;""</f>
-        <v>Banshee</v>
+        <v>Werewolf</v>
       </c>
       <c r="I5" t="str">
         <f t="array" ref="I5">INDEX(C:C,SMALL(IF($C$1:$C$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(C5)))&amp;""</f>
-        <v>Davy Jones</v>
+        <v>Maiden Dojoji</v>
       </c>
       <c r="J5" t="str">
         <f t="array" ref="J5">INDEX(D:D,SMALL(IF($D$1:$D$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(D5)))&amp;""</f>
@@ -5764,11 +5764,11 @@
       </c>
       <c r="H6" t="str">
         <f t="array" ref="H6">INDEX(B:B,SMALL(IF($B$1:$B$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(B6)))&amp;""</f>
-        <v>Longgongtongzi</v>
+        <v>Banshee</v>
       </c>
       <c r="I6" t="str">
         <f t="array" ref="I6">INDEX(C:C,SMALL(IF($C$1:$C$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(C6)))&amp;""</f>
-        <v>Maiden Dojoji</v>
+        <v>Nephila</v>
       </c>
       <c r="J6" t="str">
         <f t="array" ref="J6">INDEX(D:D,SMALL(IF($D$1:$D$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(D6)))&amp;""</f>
@@ -5959,11 +5959,11 @@
       </c>
       <c r="B7" t="str">
         <f>IF(Overview_EN!C8=$B$1,Overview_EN!A8,"")</f>
-        <v/>
+        <v>Kappa</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>IF(Overview_EN!C8=$C$1,Overview_EN!A8,"")</f>
-        <v>Kappa</v>
+        <v/>
       </c>
       <c r="D7" t="str">
         <f>IF(Overview_EN!C8=$D$1,Overview_EN!A8,"")</f>
@@ -5979,11 +5979,11 @@
       </c>
       <c r="H7" t="str">
         <f t="array" ref="H7">INDEX(B:B,SMALL(IF($B$1:$B$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(B7)))&amp;""</f>
-        <v>Harpy</v>
+        <v>Longgongtongzi</v>
       </c>
       <c r="I7" t="str">
         <f t="array" ref="I7">INDEX(C:C,SMALL(IF($C$1:$C$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(C7)))&amp;""</f>
-        <v>Nephila</v>
+        <v/>
       </c>
       <c r="J7" t="str">
         <f t="array" ref="J7">INDEX(D:D,SMALL(IF($D$1:$D$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(D7)))&amp;""</f>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="H8" t="str">
         <f t="array" ref="H8">INDEX(B:B,SMALL(IF($B$1:$B$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(B8)))&amp;""</f>
-        <v>Keres</v>
+        <v>Harpy</v>
       </c>
       <c r="I8" t="str">
         <f t="array" ref="I8">INDEX(C:C,SMALL(IF($C$1:$C$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(C8)))&amp;""</f>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="H9" t="str">
         <f t="array" ref="H9">INDEX(B:B,SMALL(IF($B$1:$B$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(B9)))&amp;""</f>
-        <v>King Elve</v>
+        <v>Keres</v>
       </c>
       <c r="I9" t="str">
         <f t="array" ref="I9">INDEX(C:C,SMALL(IF($C$1:$C$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(C9)))&amp;""</f>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H10" t="str">
         <f t="array" ref="H10">INDEX(B:B,SMALL(IF($B$1:$B$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(B10)))&amp;""</f>
-        <v>Ifrit</v>
+        <v>King Elve</v>
       </c>
       <c r="I10" t="str">
         <f t="array" ref="I10">INDEX(C:C,SMALL(IF($C$1:$C$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(C10)))&amp;""</f>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="H11" t="str">
         <f t="array" ref="H11">INDEX(B:B,SMALL(IF($B$1:$B$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(B11)))&amp;""</f>
-        <v/>
+        <v>Ifrit</v>
       </c>
       <c r="I11" t="str">
         <f t="array" ref="I11">INDEX(C:C,SMALL(IF($C$1:$C$1000&lt;&gt;"",ROW($1:$1000),4^8),ROW(C11)))&amp;""</f>
